--- a/部品表.xlsx
+++ b/部品表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google_drive\eagle\M5stamp_round_lcd02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google_drive\scマーケットプレイス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C281DA1A-EC3D-40E7-97BE-487989EF6E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC646205-2DF9-43C3-BA07-6A2AA4140C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{CAE304EF-5C39-41A2-B5FE-627BE44E1828}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{CAE304EF-5C39-41A2-B5FE-627BE44E1828}"/>
   </bookViews>
   <sheets>
     <sheet name="M5stamp_round_lcd" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>J1</t>
   </si>
@@ -119,27 +119,12 @@
     <t>BSS138</t>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>https://akizukidenshi.com/catalog/g/gI-04232/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>列1</t>
-  </si>
-  <si>
-    <t>https://ja.aliexpress.com/item/1005002525190127.html?gatewayAdapt=glo2jpn&amp;spm=a2g0o.order_list.0.0.21ef585aIoPDf3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.switch-science.com/catalog/7474/</t>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,15 +135,6 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -182,15 +158,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -200,27 +173,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -243,12 +206,11 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{1F08AE5C-703E-46FA-9A62-A9F5724E7FE9}" autoFormatId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="10" unboundColumnsRight="1">
-    <queryTableFields count="4">
+  <queryTableRefresh nextId="10">
+    <queryTableFields count="3">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
-      <queryTableField id="9" dataBound="0" tableColumnId="9"/>
     </queryTableFields>
     <queryTableDeletedFields count="5">
       <deletedField name="Column4"/>
@@ -262,13 +224,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB106D35-C8AA-41A6-B155-845AE1D7A39C}" name="M5stamp_round_lcd" displayName="M5stamp_round_lcd" ref="A1:D11" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D11" xr:uid="{CB106D35-C8AA-41A6-B155-845AE1D7A39C}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{12387AF0-6CF4-419D-9FA8-19BBE5D7E298}" uniqueName="1" name="Part" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{4647F808-D188-40E8-8EFB-09B4E3F9116C}" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB106D35-C8AA-41A6-B155-845AE1D7A39C}" name="M5stamp_round_lcd" displayName="M5stamp_round_lcd" ref="A1:C11" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C11" xr:uid="{CB106D35-C8AA-41A6-B155-845AE1D7A39C}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{12387AF0-6CF4-419D-9FA8-19BBE5D7E298}" uniqueName="1" name="Part" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{4647F808-D188-40E8-8EFB-09B4E3F9116C}" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{DBC7A127-DF81-4F99-A1AF-47891A143609}" uniqueName="3" name="Device" queryTableFieldId="3" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{A2DD37E8-449E-4008-A611-9335FEB9040A}" uniqueName="9" name="列1" queryTableFieldId="9" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -571,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E118DAD3-D8AF-4D5C-B99D-5B7B7EE273C0}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -582,10 +543,9 @@
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -595,21 +555,17 @@
       <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -619,97 +575,85 @@
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>1608</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>1608</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>1608</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>1608</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>1608</v>
       </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>1608</v>
       </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -719,20 +663,12 @@
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{CDAFC03F-2463-4434-8CFA-E77C334B27D3}"/>
-    <hyperlink ref="D11" r:id="rId2" xr:uid="{D2A70314-7A38-421C-9B09-C626D4DEDEF9}"/>
-    <hyperlink ref="D10" r:id="rId3" xr:uid="{326E2EFD-4734-4901-8453-84E3B5012D71}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
